--- a/console/Networking/iaas-network/componentsMixinsXlsx/acl/aclRuleListItem.xlsx
+++ b/console/Networking/iaas-network/componentsMixinsXlsx/acl/aclRuleListItem.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -940,7 +940,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
